--- a/IPM.xlsx
+++ b/IPM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pekerjaan\LPS\PCP II\OJT\Hackathon 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Capaian-Indikator-Utama-Pembangunan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C9EBD7C-D515-4845-8CBC-781ECFC3EC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64268B3A-6FBB-4D23-95FE-BF7A4A43EAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="16199" windowHeight="9307" xr2:uid="{029B9AF8-179E-4581-95B8-8C22C747172B}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{029B9AF8-179E-4581-95B8-8C22C747172B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E61344-0821-4ADB-823A-E43F0EA1E0B3}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -416,90 +416,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B2">
-        <v>73.41</v>
+        <v>72.78</v>
       </c>
       <c r="C2">
-        <v>73.459999999999994</v>
+        <v>72.95</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B3">
-        <v>72.78</v>
-      </c>
-      <c r="C3">
-        <v>72.95</v>
+        <v>72.510000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B4">
-        <v>72.510000000000005</v>
+        <v>71.98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B5">
-        <v>71.98</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>2018</v>
-      </c>
-      <c r="B6">
-        <v>71.5</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>2017</v>
+        <v>2016</v>
+      </c>
+      <c r="B7">
+        <v>75.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>75.3</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>2014</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14">
         <v>2010</v>
       </c>
     </row>
